--- a/fe_week 03/task/tasks.xlsx
+++ b/fe_week 03/task/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>- html5 структура верстки. </t>
   </si>
@@ -46,13 +46,43 @@
   </si>
   <si>
     <t>- Contact - карта картинкой (additional - goole map )</t>
+  </si>
+  <si>
+    <t>- ДЗ должно быть сверстанно на флексах(гуглите flexbox model)</t>
+  </si>
+  <si>
+    <t>- подключить normalize css.</t>
+  </si>
+  <si>
+    <t>Секции во всю высоту экрана.</t>
+  </si>
+  <si>
+    <t>Если контента много - секция просто увеличивается в размерах дальше.</t>
+  </si>
+  <si>
+    <t>Если контента не много - центрируем блок по вертикали. Флексами это будет очень легко сделать.</t>
+  </si>
+  <si>
+    <t>Фоны с линиями на каждой секции.</t>
+  </si>
+  <si>
+    <t>Хедер - фиксированный.</t>
+  </si>
+  <si>
+    <t>Навигация - якоря.</t>
+  </si>
+  <si>
+    <t>Первая секция - картинка отдельно, слой с градиентом - отдельно.</t>
+  </si>
+  <si>
+    <t>History в About Us - список определений - dl.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +97,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D2129"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="3">
@@ -95,16 +130,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,65 +476,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="84.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.5">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="29.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +580,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -520,7 +592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
